--- a/model/datasets/Dengue_NCR_Fct.xlsx
+++ b/model/datasets/Dengue_NCR_Fct.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cirrolytix\Documents\GitHub\nasa_hack\nasa_hack\model\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fct" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>MTD_Cases</t>
   </si>
@@ -112,15 +118,33 @@
   <si>
     <t>[0.2399641268594701, 0.005574859719993332, 0.20825181848463636, 1.2565087752239603e-06]</t>
   </si>
+  <si>
+    <t>Actual Cases</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -180,13 +204,1603 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1384.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5115</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3131</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>657.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3084</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5213</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3776.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5485.8333333333339</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3734</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08C0-4612-AB83-633D0345BFCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$L$2:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>747.76012081267868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>408.3248787205041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2324.101347031462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2481.5649665001142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4447.5462875682751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6591.1227091578712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7524.8555975891886</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2708.2367718120022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2467.7771627923098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>809.73435461432211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>434.61545099205563</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>813.89309326872467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>627.27640312463006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1960.347831692603</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2256.5054151387239</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1042.477090596296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2749.08008527224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3255.6552282628159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2934.2316597128029</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1842.323722532238</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2385.8539047993581</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1730.8851203278571</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1137.493062498786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>903.38786781824456</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>931.06615150464461</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>744.56790784778605</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2784.378934043094</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1979.5836604240319</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6410.759193632286</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6170.5064254747331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3118.9090573861281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3166.5114795033678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3573.7609673382108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1586.841247509383</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1454.021922795323</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2258.925458791814</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>973.15650979293559</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>330.80541533078713</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2669.5147252204829</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2268.865532612765</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9089.7610440084209</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4357.8463260726112</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5184.8353828597756</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3490.083030833192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08C0-4612-AB83-633D0345BFCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$M$2:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>771.76010921096065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>408.52121839744638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2314.5877908361508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2574.680000249577</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4482.7566972418354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6324.8018941785867</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7599.5580248159467</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2637.9123569938429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2537.2130007722189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>818.3571340827059</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>433.1012329635322</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1102.0280317218239</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>669.27179118019012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1964.743936295097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2261.4409740412279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1075.9723895152231</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2731.3079477334409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3186.6471585168711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2883.604993395194</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1858.506137997311</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2385.4013244205898</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1697.42677645513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1128.9361496927779</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1117.693472042472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>927.05563282715332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>742.61947393156629</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2791.4015691455238</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2051.669047575635</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6406.192553658816</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5981.0983585406057</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3149.4824052993249</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3159.9807962610639</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3503.508129672884</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1587.741433856246</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1407.099493778454</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3002.06412215003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>986.52447971831702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>371.3956638901517</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2631.66044222338</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2397.2657355818751</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9030.7329734686955</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4264.0823783629376</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5239.3075334521363</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3532.2716552681718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08C0-4612-AB83-633D0345BFCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fct!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fct!$N$2:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>903.36090287691809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>403.1597780828248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2307.6681590491812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2994.5327488508678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4650.9167183557283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4879.4110998853903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8005.792963836423</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2270.1208313087618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2909.7302988727488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>869.59849217134172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>362.25269168070861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>842.14991169565781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>751.98765978674157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002.323867288181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2267.0776445850352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1194.160717702486</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2640.785775370879</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2811.0408857480288</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2597.4587983135252</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1950.8216553376701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2389.585431115675</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1531.634985089376</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1083.554268809728</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>714.6722404836886</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>905.15480554029193</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>737.64310026190947</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2793.951661819493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2404.224465173063</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6397.9511911171649</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4964.7136867890968</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3308.5925472410131</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3124.6753197080538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3150.587360669434</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1598.1559019975341</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1168.201001224043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2191.494106752983</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1064.669778274488</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>439.57913786141091</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2491.24356040468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3056.7815918155161</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8235.2777515047965</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3778.4294520783819</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5532.3682042964501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3756.0505102470911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08C0-4612-AB83-633D0345BFCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="450663920"/>
+        <c:axId val="450670576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="450663920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450670576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450670576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450663920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -232,7 +1846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +1878,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,6 +1913,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,14 +2089,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:N49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -523,8 +2141,17 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42035</v>
       </c>
@@ -544,22 +2171,34 @@
         <v>0.105</v>
       </c>
       <c r="G2">
-        <v>0.2025</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="H2">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I2">
-        <v>0.1675</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="J2">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K2">
-        <v>0.004127358490566038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>4.1273584905660377E-3</v>
+      </c>
+      <c r="P2">
+        <f>CORREL($B6:$B49,L6:L49)</f>
+        <v>0.69712534906609414</v>
+      </c>
+      <c r="Q2">
+        <f>CORREL($B6:$B49,M6:M49)</f>
+        <v>0.68604725764505703</v>
+      </c>
+      <c r="R2">
+        <f>CORREL($B6:$B49,N6:N49)</f>
+        <v>0.66471821381829554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42063</v>
       </c>
@@ -593,8 +2232,20 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3">
+        <f>RSQ($B6:$B49,L6:L49)</f>
+        <v>0.48598375231052343</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:R3" si="0">RSQ($B6:$B49,M6:M49)</f>
+        <v>0.47066083972230344</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0.44185030378178525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42094</v>
       </c>
@@ -611,25 +2262,25 @@
         <v>6.7</v>
       </c>
       <c r="F4">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H4">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="I4">
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J4">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="K4">
-        <v>0.004901960784313725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>4.9019607843137254E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42124</v>
       </c>
@@ -640,31 +2291,31 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>29.96666666666667</v>
+        <v>29.966666666666669</v>
       </c>
       <c r="E5">
         <v>23.1</v>
       </c>
       <c r="F5">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.0425</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="I5">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="J5">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K5">
-        <v>0.005733944954128441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>5.7339449541284407E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42155</v>
       </c>
@@ -675,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>30.53333333333333</v>
+        <v>30.533333333333331</v>
       </c>
       <c r="E6">
-        <v>73.33333333333333</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="F6">
-        <v>0.05599999999999999</v>
+        <v>5.5999999999999987E-2</v>
       </c>
       <c r="G6">
         <v>0.104</v>
@@ -693,22 +2344,22 @@
         <v>0.09</v>
       </c>
       <c r="J6">
-        <v>0.07400000000000001</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>747.7601208126787</v>
+        <v>747.76012081267868</v>
       </c>
       <c r="M6">
-        <v>771.7601092109606</v>
+        <v>771.76010921096065</v>
       </c>
       <c r="N6">
-        <v>903.3609028769181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>903.36090287691809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42185</v>
       </c>
@@ -722,13 +2373,13 @@
         <v>30.2</v>
       </c>
       <c r="E7">
-        <v>192.3333333333333</v>
+        <v>192.33333333333329</v>
       </c>
       <c r="F7">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="G7">
-        <v>0.1325</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="H7">
         <v>0.23</v>
@@ -740,19 +2391,19 @@
         <v>0.1075</v>
       </c>
       <c r="K7">
-        <v>0.004830917874396135</v>
+        <v>4.830917874396135E-3</v>
       </c>
       <c r="L7">
         <v>408.3248787205041</v>
       </c>
       <c r="M7">
-        <v>408.5212183974464</v>
+        <v>408.52121839744638</v>
       </c>
       <c r="N7">
         <v>403.1597780828248</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42216</v>
       </c>
@@ -763,40 +2414,40 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>28.46666666666667</v>
+        <v>28.466666666666669</v>
       </c>
       <c r="E8">
-        <v>464.1333333333334</v>
+        <v>464.13333333333338</v>
       </c>
       <c r="F8">
         <v>0.15</v>
       </c>
       <c r="G8">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H8">
         <v>0.315</v>
       </c>
       <c r="I8">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J8">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="K8">
-        <v>0.005504587155963303</v>
+        <v>5.5045871559633031E-3</v>
       </c>
       <c r="L8">
         <v>2324.101347031462</v>
       </c>
       <c r="M8">
-        <v>2314.587790836151</v>
+        <v>2314.5877908361508</v>
       </c>
       <c r="N8">
-        <v>2307.668159049181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>2307.6681590491812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42247</v>
       </c>
@@ -807,13 +2458,13 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>28.76666666666667</v>
+        <v>28.766666666666669</v>
       </c>
       <c r="E9">
-        <v>338.9333333333333</v>
+        <v>338.93333333333328</v>
       </c>
       <c r="F9">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="G9">
         <v>0.374</v>
@@ -822,25 +2473,25 @@
         <v>0.35</v>
       </c>
       <c r="I9">
-        <v>0.456</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="J9">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="K9">
-        <v>0.003378378378378379</v>
+        <v>3.378378378378379E-3</v>
       </c>
       <c r="L9">
-        <v>2481.564966500114</v>
+        <v>2481.5649665001142</v>
       </c>
       <c r="M9">
         <v>2574.680000249577</v>
       </c>
       <c r="N9">
-        <v>2994.532748850868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>2994.5327488508678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42277</v>
       </c>
@@ -857,34 +2508,34 @@
         <v>392.1</v>
       </c>
       <c r="F10">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="G10">
-        <v>0.5075</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="H10">
         <v>0.5625</v>
       </c>
       <c r="I10">
-        <v>0.5525</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="J10">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K10">
-        <v>0.004261913986826811</v>
+        <v>4.2619139868268112E-3</v>
       </c>
       <c r="L10">
-        <v>4447.546287568275</v>
+        <v>4447.5462875682751</v>
       </c>
       <c r="M10">
-        <v>4482.756697241835</v>
+        <v>4482.7566972418354</v>
       </c>
       <c r="N10">
-        <v>4650.916718355728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>4650.9167183557283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42308</v>
       </c>
@@ -898,16 +2549,16 @@
         <v>28.6</v>
       </c>
       <c r="E11">
-        <v>198.0666666666667</v>
+        <v>198.06666666666669</v>
       </c>
       <c r="F11">
         <v>0.3175</v>
       </c>
       <c r="G11">
-        <v>0.5375</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="H11">
-        <v>0.6975</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="I11">
         <v>0.3775</v>
@@ -916,19 +2567,19 @@
         <v>0.37</v>
       </c>
       <c r="K11">
-        <v>0.003534014893348479</v>
+        <v>3.5340148933484792E-3</v>
       </c>
       <c r="L11">
-        <v>6591.122709157871</v>
+        <v>6591.1227091578712</v>
       </c>
       <c r="M11">
-        <v>6324.801894178587</v>
+        <v>6324.8018941785867</v>
       </c>
       <c r="N11">
-        <v>4879.41109988539</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>4879.4110998853903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42338</v>
       </c>
@@ -948,31 +2599,31 @@
         <v>0.218</v>
       </c>
       <c r="G12">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="H12">
-        <v>0.416</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I12">
-        <v>0.292</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="J12">
         <v>0.248</v>
       </c>
       <c r="K12">
-        <v>0.006129597197898424</v>
+        <v>6.1295971978984239E-3</v>
       </c>
       <c r="L12">
-        <v>7524.855597589189</v>
+        <v>7524.8555975891886</v>
       </c>
       <c r="M12">
-        <v>7599.558024815947</v>
+        <v>7599.5580248159467</v>
       </c>
       <c r="N12">
         <v>8005.792963836423</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42369</v>
       </c>
@@ -983,19 +2634,19 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>27.53333333333333</v>
+        <v>27.533333333333331</v>
       </c>
       <c r="E13">
         <v>294.2</v>
       </c>
       <c r="F13">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G13">
-        <v>0.2575</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="H13">
-        <v>0.2775</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="I13">
         <v>0.3725</v>
@@ -1004,19 +2655,19 @@
         <v>0.16</v>
       </c>
       <c r="K13">
-        <v>0.001050788091068301</v>
+        <v>1.0507880910683011E-3</v>
       </c>
       <c r="L13">
-        <v>2708.236771812002</v>
+        <v>2708.2367718120022</v>
       </c>
       <c r="M13">
-        <v>2637.912356993843</v>
+        <v>2637.9123569938429</v>
       </c>
       <c r="N13">
-        <v>2270.120831308762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>2270.1208313087618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42400</v>
       </c>
@@ -1027,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>27.76666666666667</v>
+        <v>27.766666666666669</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -1039,7 +2690,7 @@
         <v>0.26</v>
       </c>
       <c r="H14">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I14">
         <v>0.31</v>
@@ -1048,19 +2699,19 @@
         <v>0.156</v>
       </c>
       <c r="K14">
-        <v>0.00356718192627824</v>
+        <v>3.5671819262782399E-3</v>
       </c>
       <c r="L14">
-        <v>2467.77716279231</v>
+        <v>2467.7771627923098</v>
       </c>
       <c r="M14">
-        <v>2537.213000772219</v>
+        <v>2537.2130007722189</v>
       </c>
       <c r="N14">
-        <v>2909.730298872749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>2909.7302988727488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42429</v>
       </c>
@@ -1071,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>27.26666666666667</v>
+        <v>27.266666666666669</v>
       </c>
       <c r="E15">
         <v>30.9</v>
@@ -1080,7 +2731,7 @@
         <v>0.115</v>
       </c>
       <c r="G15">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H15">
         <v>0.17</v>
@@ -1089,22 +2740,22 @@
         <v>0.315</v>
       </c>
       <c r="J15">
-        <v>0.1025</v>
+        <v>0.10249999999999999</v>
       </c>
       <c r="K15">
-        <v>0.006269592476489028</v>
+        <v>6.269592476489028E-3</v>
       </c>
       <c r="L15">
-        <v>809.7343546143221</v>
+        <v>809.73435461432211</v>
       </c>
       <c r="M15">
         <v>818.3571340827059</v>
       </c>
       <c r="N15">
-        <v>869.5984921713417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>869.59849217134172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
@@ -1121,7 +2772,7 @@
         <v>1.3</v>
       </c>
       <c r="F16">
-        <v>0.08749999999999999</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="G16">
         <v>0.15</v>
@@ -1136,19 +2787,19 @@
         <v>0.08</v>
       </c>
       <c r="K16">
-        <v>0.003699136868064118</v>
+        <v>3.699136868064118E-3</v>
       </c>
       <c r="L16">
-        <v>434.6154509920556</v>
+        <v>434.61545099205563</v>
       </c>
       <c r="M16">
         <v>433.1012329635322</v>
       </c>
       <c r="N16">
-        <v>362.2526916807086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>362.25269168070861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42490</v>
       </c>
@@ -1162,10 +2813,10 @@
         <v>30.86666666666666</v>
       </c>
       <c r="E17">
-        <v>18.76666666666667</v>
+        <v>18.766666666666669</v>
       </c>
       <c r="F17">
-        <v>0.0675</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="G17">
         <v>0.08</v>
@@ -1174,25 +2825,25 @@
         <v>0.1575</v>
       </c>
       <c r="I17">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J17">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K17">
-        <v>0.00372300819061802</v>
+        <v>3.7230081906180199E-3</v>
       </c>
       <c r="L17">
-        <v>813.8930932687247</v>
+        <v>813.89309326872467</v>
       </c>
       <c r="M17">
-        <v>1102.028031721824</v>
+        <v>1102.0280317218239</v>
       </c>
       <c r="N17">
-        <v>842.1499116956578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>842.14991169565781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42521</v>
       </c>
@@ -1209,34 +2860,34 @@
         <v>100.6333333333333</v>
       </c>
       <c r="F18">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G18">
         <v>0.12</v>
       </c>
       <c r="H18">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I18">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="J18">
-        <v>0.05599999999999999</v>
+        <v>5.5999999999999987E-2</v>
       </c>
       <c r="K18">
-        <v>0.004514672686230248</v>
+        <v>4.5146726862302479E-3</v>
       </c>
       <c r="L18">
-        <v>627.2764031246301</v>
+        <v>627.27640312463006</v>
       </c>
       <c r="M18">
-        <v>669.2717911801901</v>
+        <v>669.27179118019012</v>
       </c>
       <c r="N18">
-        <v>751.9876597867416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>751.98765978674157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
@@ -1250,25 +2901,25 @@
         <v>29.9</v>
       </c>
       <c r="E19">
-        <v>180.8333333333333</v>
+        <v>180.83333333333329</v>
       </c>
       <c r="F19">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G19">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H19">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="I19">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="J19">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K19">
-        <v>0.00725689404934688</v>
+        <v>7.2568940493468797E-3</v>
       </c>
       <c r="L19">
         <v>1960.347831692603</v>
@@ -1280,7 +2931,7 @@
         <v>2002.323867288181</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42582</v>
       </c>
@@ -1297,13 +2948,13 @@
         <v>306.8</v>
       </c>
       <c r="F20">
-        <v>0.166</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="G20">
         <v>0.248</v>
       </c>
       <c r="H20">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="I20">
         <v>0.214</v>
@@ -1312,19 +2963,19 @@
         <v>0.18</v>
       </c>
       <c r="K20">
-        <v>0.003479471120389701</v>
+        <v>3.4794711203897009E-3</v>
       </c>
       <c r="L20">
-        <v>2256.505415138724</v>
+        <v>2256.5054151387239</v>
       </c>
       <c r="M20">
-        <v>2261.440974041228</v>
+        <v>2261.4409740412279</v>
       </c>
       <c r="N20">
-        <v>2267.077644585035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>2267.0776445850352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42613</v>
       </c>
@@ -1341,34 +2992,34 @@
         <v>610.4</v>
       </c>
       <c r="F21">
-        <v>0.2375</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="G21">
         <v>0.37</v>
       </c>
       <c r="H21">
-        <v>0.2575</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="I21">
-        <v>0.4075</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="J21">
-        <v>0.2925</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="K21">
-        <v>0.001511715797430083</v>
+        <v>1.511715797430083E-3</v>
       </c>
       <c r="L21">
         <v>1042.477090596296</v>
       </c>
       <c r="M21">
-        <v>1075.972389515223</v>
+        <v>1075.9723895152231</v>
       </c>
       <c r="N21">
         <v>1194.160717702486</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42643</v>
       </c>
@@ -1379,40 +3030,40 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>28.73333333333333</v>
+        <v>28.733333333333331</v>
       </c>
       <c r="E22">
-        <v>307.2666666666667</v>
+        <v>307.26666666666671</v>
       </c>
       <c r="F22">
-        <v>0.1975</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="G22">
-        <v>0.3025</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="H22">
         <v>0.32</v>
       </c>
       <c r="I22">
-        <v>0.3425</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="J22">
         <v>0.2</v>
       </c>
       <c r="K22">
-        <v>0.00380754586362063</v>
+        <v>3.8075458636206302E-3</v>
       </c>
       <c r="L22">
         <v>2749.08008527224</v>
       </c>
       <c r="M22">
-        <v>2731.307947733441</v>
+        <v>2731.3079477334409</v>
       </c>
       <c r="N22">
         <v>2640.785775370879</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42674</v>
       </c>
@@ -1423,10 +3074,10 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>28.76666666666667</v>
+        <v>28.766666666666669</v>
       </c>
       <c r="E23">
-        <v>211.2333333333333</v>
+        <v>211.23333333333329</v>
       </c>
       <c r="F23">
         <v>0.156</v>
@@ -1435,7 +3086,7 @@
         <v>0.24</v>
       </c>
       <c r="H23">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I23">
         <v>0.218</v>
@@ -1444,19 +3095,19 @@
         <v>0.154</v>
       </c>
       <c r="K23">
-        <v>0.005553498704183635</v>
+        <v>5.5534987041836346E-3</v>
       </c>
       <c r="L23">
-        <v>3255.655228262816</v>
+        <v>3255.6552282628159</v>
       </c>
       <c r="M23">
-        <v>3186.647158516871</v>
+        <v>3186.6471585168711</v>
       </c>
       <c r="N23">
-        <v>2811.040885748029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>2811.0408857480288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42704</v>
       </c>
@@ -1473,34 +3124,34 @@
         <v>88.8</v>
       </c>
       <c r="F24">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G24">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H24">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I24">
-        <v>0.2425</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="J24">
         <v>0.1225</v>
       </c>
       <c r="K24">
-        <v>0.00522466039707419</v>
+        <v>5.2246603970741903E-3</v>
       </c>
       <c r="L24">
-        <v>2934.231659712803</v>
+        <v>2934.2316597128029</v>
       </c>
       <c r="M24">
         <v>2883.604993395194</v>
       </c>
       <c r="N24">
-        <v>2597.458798313525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>2597.4587983135252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42735</v>
       </c>
@@ -1511,28 +3162,28 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>27.96666666666667</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="E25">
-        <v>98.16666666666667</v>
+        <v>98.166666666666671</v>
       </c>
       <c r="F25">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G25">
         <v>0.155</v>
       </c>
       <c r="H25">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="I25">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J25">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K25">
-        <v>0.003811944091486658</v>
+        <v>3.8119440914866579E-3</v>
       </c>
       <c r="L25">
         <v>1842.323722532238</v>
@@ -1541,10 +3192,10 @@
         <v>1858.506137997311</v>
       </c>
       <c r="N25">
-        <v>1950.82165533767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1950.8216553376701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42766</v>
       </c>
@@ -1567,28 +3218,28 @@
         <v>0.184</v>
       </c>
       <c r="H26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I26">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J26">
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K26">
-        <v>0.00267022696929239</v>
+        <v>2.6702269692923902E-3</v>
       </c>
       <c r="L26">
-        <v>2385.853904799358</v>
+        <v>2385.8539047993581</v>
       </c>
       <c r="M26">
-        <v>2385.40132442059</v>
+        <v>2385.4013244205898</v>
       </c>
       <c r="N26">
         <v>2389.585431115675</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42794</v>
       </c>
@@ -1599,19 +3250,19 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>26.66666666666667</v>
+        <v>26.666666666666671</v>
       </c>
       <c r="E27">
-        <v>47.03333333333333</v>
+        <v>47.033333333333331</v>
       </c>
       <c r="F27">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G27">
         <v>0.155</v>
       </c>
       <c r="H27">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="I27">
         <v>0.06</v>
@@ -1620,10 +3271,10 @@
         <v>0.08</v>
       </c>
       <c r="K27">
-        <v>0.005514705882352942</v>
+        <v>5.5147058823529424E-3</v>
       </c>
       <c r="L27">
-        <v>1730.885120327857</v>
+        <v>1730.8851203278571</v>
       </c>
       <c r="M27">
         <v>1697.42677645513</v>
@@ -1632,7 +3283,7 @@
         <v>1531.634985089376</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42825</v>
       </c>
@@ -1643,40 +3294,40 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>28.23333333333333</v>
+        <v>28.233333333333331</v>
       </c>
       <c r="E28">
-        <v>5.433333333333334</v>
+        <v>5.4333333333333336</v>
       </c>
       <c r="F28">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G28">
-        <v>0.1425</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="H28">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I28">
         <v>0.2</v>
       </c>
       <c r="J28">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K28">
-        <v>0.00715307582260372</v>
+        <v>7.1530758226037196E-3</v>
       </c>
       <c r="L28">
         <v>1137.493062498786</v>
       </c>
       <c r="M28">
-        <v>1128.936149692778</v>
+        <v>1128.9361496927779</v>
       </c>
       <c r="N28">
         <v>1083.554268809728</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42855</v>
       </c>
@@ -1696,7 +3347,7 @@
         <v>0.05</v>
       </c>
       <c r="G29">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H29">
         <v>0.182</v>
@@ -1708,10 +3359,10 @@
         <v>0.05</v>
       </c>
       <c r="K29">
-        <v>0.007692307692307693</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="L29">
-        <v>903.3878678182446</v>
+        <v>903.38786781824456</v>
       </c>
       <c r="M29">
         <v>1117.693472042472</v>
@@ -1720,7 +3371,7 @@
         <v>714.6722404836886</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42886</v>
       </c>
@@ -1737,13 +3388,13 @@
         <v>166.1333333333333</v>
       </c>
       <c r="F30">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G30">
-        <v>0.0975</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="H30">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="I30">
         <v>0.1275</v>
@@ -1752,19 +3403,19 @@
         <v>0.05</v>
       </c>
       <c r="K30">
-        <v>0.007827788649706457</v>
+        <v>7.8277886497064575E-3</v>
       </c>
       <c r="L30">
-        <v>931.0661515046446</v>
+        <v>931.06615150464461</v>
       </c>
       <c r="M30">
-        <v>927.0556328271533</v>
+        <v>927.05563282715332</v>
       </c>
       <c r="N30">
-        <v>905.1548055402919</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>905.15480554029193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
@@ -1787,28 +3438,28 @@
         <v>0.18</v>
       </c>
       <c r="H31">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I31">
         <v>0.255</v>
       </c>
       <c r="J31">
-        <v>0.0775</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K31">
-        <v>0.006968641114982578</v>
+        <v>6.9686411149825784E-3</v>
       </c>
       <c r="L31">
-        <v>744.567907847786</v>
+        <v>744.56790784778605</v>
       </c>
       <c r="M31">
-        <v>742.6194739315663</v>
+        <v>742.61947393156629</v>
       </c>
       <c r="N31">
-        <v>737.6431002619095</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>737.64310026190947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42947</v>
       </c>
@@ -1819,13 +3470,13 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <v>28.73333333333333</v>
+        <v>28.733333333333331</v>
       </c>
       <c r="E32">
-        <v>405.2366666666667</v>
+        <v>405.23666666666668</v>
       </c>
       <c r="F32">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="G32">
         <v>0.216</v>
@@ -1840,19 +3491,19 @@
         <v>0.15</v>
       </c>
       <c r="K32">
-        <v>0.007609130957148579</v>
+        <v>7.6091309571485787E-3</v>
       </c>
       <c r="L32">
         <v>2784.378934043094</v>
       </c>
       <c r="M32">
-        <v>2791.401569145524</v>
+        <v>2791.4015691455238</v>
       </c>
       <c r="N32">
         <v>2793.951661819493</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42978</v>
       </c>
@@ -1869,25 +3520,25 @@
         <v>397.0333333333333</v>
       </c>
       <c r="F33">
-        <v>0.1725</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="G33">
-        <v>0.2425</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="H33">
-        <v>0.3825</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="I33">
         <v>0.255</v>
       </c>
       <c r="J33">
-        <v>0.1675</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="K33">
-        <v>0.005345911949685534</v>
+        <v>5.3459119496855343E-3</v>
       </c>
       <c r="L33">
-        <v>1979.583660424032</v>
+        <v>1979.5836604240319</v>
       </c>
       <c r="M33">
         <v>2051.669047575635</v>
@@ -1896,7 +3547,7 @@
         <v>2404.224465173063</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43008</v>
       </c>
@@ -1910,10 +3561,10 @@
         <v>28.93333333333333</v>
       </c>
       <c r="E34">
-        <v>417.7366666666667</v>
+        <v>417.73666666666668</v>
       </c>
       <c r="F34">
-        <v>0.1725</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="G34">
         <v>0.26</v>
@@ -1922,13 +3573,13 @@
         <v>0.3075</v>
       </c>
       <c r="I34">
-        <v>0.2875</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="J34">
         <v>0.155</v>
       </c>
       <c r="K34">
-        <v>0.007820136852394917</v>
+        <v>7.8201368523949169E-3</v>
       </c>
       <c r="L34">
         <v>6410.759193632286</v>
@@ -1937,10 +3588,10 @@
         <v>6406.192553658816</v>
       </c>
       <c r="N34">
-        <v>6397.951191117165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>6397.9511911171649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43039</v>
       </c>
@@ -1951,13 +3602,13 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <v>28.33333333333333</v>
+        <v>28.333333333333329</v>
       </c>
       <c r="E35">
         <v>245.3</v>
       </c>
       <c r="F35">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="G35">
         <v>0.224</v>
@@ -1969,22 +3620,22 @@
         <v>0.152</v>
       </c>
       <c r="J35">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="K35">
-        <v>0.005747126436781609</v>
+        <v>5.7471264367816091E-3</v>
       </c>
       <c r="L35">
-        <v>6170.506425474733</v>
+        <v>6170.5064254747331</v>
       </c>
       <c r="M35">
-        <v>5981.098358540606</v>
+        <v>5981.0983585406057</v>
       </c>
       <c r="N35">
-        <v>4964.713686789097</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>4964.7136867890968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43069</v>
       </c>
@@ -2001,34 +3652,34 @@
         <v>144.0333333333333</v>
       </c>
       <c r="F36">
-        <v>0.1475</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="G36">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H36">
-        <v>0.2275</v>
+        <v>0.22750000000000001</v>
       </c>
       <c r="I36">
-        <v>0.3425</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="J36">
-        <v>0.1325</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="K36">
-        <v>0.002555094219099329</v>
+        <v>2.5550942190993289E-3</v>
       </c>
       <c r="L36">
-        <v>3118.909057386128</v>
+        <v>3118.9090573861281</v>
       </c>
       <c r="M36">
-        <v>3149.482405299325</v>
+        <v>3149.4824052993249</v>
       </c>
       <c r="N36">
-        <v>3308.592547241013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>3308.5925472410131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43100</v>
       </c>
@@ -2042,37 +3693,37 @@
         <v>27.3</v>
       </c>
       <c r="E37">
-        <v>81.89999999999999</v>
+        <v>81.899999999999991</v>
       </c>
       <c r="F37">
-        <v>0.228</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="G37">
         <v>0.25</v>
       </c>
       <c r="H37">
-        <v>0.472</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="I37">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="J37">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="K37">
-        <v>0.007416962270235408</v>
+        <v>7.4169622702354079E-3</v>
       </c>
       <c r="L37">
-        <v>3166.511479503368</v>
+        <v>3166.5114795033678</v>
       </c>
       <c r="M37">
-        <v>3159.980796261064</v>
+        <v>3159.9807962610639</v>
       </c>
       <c r="N37">
-        <v>3124.675319708054</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>3124.6753197080538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43131</v>
       </c>
@@ -2095,19 +3746,19 @@
         <v>0.18</v>
       </c>
       <c r="H38">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I38">
-        <v>0.1675</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="J38">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K38">
-        <v>0.003814367450731087</v>
+        <v>3.8143674507310869E-3</v>
       </c>
       <c r="L38">
-        <v>3573.760967338211</v>
+        <v>3573.7609673382108</v>
       </c>
       <c r="M38">
         <v>3503.508129672884</v>
@@ -2116,7 +3767,7 @@
         <v>3150.587360669434</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43159</v>
       </c>
@@ -2127,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>27.66666666666667</v>
+        <v>27.666666666666671</v>
       </c>
       <c r="E39">
         <v>1.166666666666667</v>
@@ -2142,13 +3793,13 @@
         <v>0.1</v>
       </c>
       <c r="I39">
-        <v>0.1375</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="J39">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K39">
-        <v>0.002610966057441253</v>
+        <v>2.6109660574412529E-3</v>
       </c>
       <c r="L39">
         <v>1586.841247509383</v>
@@ -2157,10 +3808,10 @@
         <v>1587.741433856246</v>
       </c>
       <c r="N39">
-        <v>1598.155901997534</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>1598.1559019975341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43190</v>
       </c>
@@ -2174,7 +3825,7 @@
         <v>28.2</v>
       </c>
       <c r="E40">
-        <v>26.16666666666667</v>
+        <v>26.166666666666671</v>
       </c>
       <c r="F40">
         <v>0.09</v>
@@ -2183,16 +3834,16 @@
         <v>0.105</v>
       </c>
       <c r="H40">
-        <v>0.1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="I40">
-        <v>0.1375</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="J40">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K40">
-        <v>0.003717472118959108</v>
+        <v>3.7174721189591081E-3</v>
       </c>
       <c r="L40">
         <v>1454.021922795323</v>
@@ -2204,7 +3855,7 @@
         <v>1168.201001224043</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43220</v>
       </c>
@@ -2218,10 +3869,10 @@
         <v>29.7</v>
       </c>
       <c r="E41">
-        <v>40.96666666666666</v>
+        <v>40.966666666666661</v>
       </c>
       <c r="F41">
-        <v>0.05599999999999999</v>
+        <v>5.5999999999999987E-2</v>
       </c>
       <c r="G41">
         <v>0.114</v>
@@ -2230,13 +3881,13 @@
         <v>0.124</v>
       </c>
       <c r="I41">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J41">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="K41">
-        <v>0.004873294346978557</v>
+        <v>4.8732943469785572E-3</v>
       </c>
       <c r="L41">
         <v>2258.925458791814</v>
@@ -2248,7 +3899,7 @@
         <v>2191.494106752983</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43251</v>
       </c>
@@ -2277,22 +3928,22 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.0575</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>973.1565097929356</v>
+        <v>973.15650979293559</v>
       </c>
       <c r="M42">
-        <v>986.524479718317</v>
+        <v>986.52447971831702</v>
       </c>
       <c r="N42">
         <v>1064.669778274488</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43281</v>
       </c>
@@ -2303,40 +3954,40 @@
         <v>14</v>
       </c>
       <c r="D43">
-        <v>28.43333333333334</v>
+        <v>28.433333333333341</v>
       </c>
       <c r="E43">
-        <v>630.9333333333333</v>
+        <v>630.93333333333328</v>
       </c>
       <c r="F43">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G43">
         <v>0.1275</v>
       </c>
       <c r="H43">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.0775</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="K43">
-        <v>0.02129277566539924</v>
+        <v>2.1292775665399239E-2</v>
       </c>
       <c r="L43">
-        <v>330.8054153307871</v>
+        <v>330.80541533078713</v>
       </c>
       <c r="M43">
         <v>371.3956638901517</v>
       </c>
       <c r="N43">
-        <v>439.5791378614109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>439.57913786141091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43312</v>
       </c>
@@ -2347,31 +3998,31 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>27.73333333333333</v>
+        <v>27.733333333333331</v>
       </c>
       <c r="E44">
         <v>621.5333333333333</v>
       </c>
       <c r="F44">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="G44">
         <v>0.252</v>
       </c>
       <c r="H44">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="I44">
-        <v>0.276</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="J44">
         <v>0.192</v>
       </c>
       <c r="K44">
-        <v>0.00324254215304799</v>
+        <v>3.2425421530479898E-3</v>
       </c>
       <c r="L44">
-        <v>2669.514725220483</v>
+        <v>2669.5147252204829</v>
       </c>
       <c r="M44">
         <v>2631.66044222338</v>
@@ -2380,7 +4031,7 @@
         <v>2491.24356040468</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43343</v>
       </c>
@@ -2391,16 +4042,16 @@
         <v>31</v>
       </c>
       <c r="D45">
-        <v>28.03333333333333</v>
+        <v>28.033333333333331</v>
       </c>
       <c r="E45">
-        <v>485.4333333333333</v>
+        <v>485.43333333333328</v>
       </c>
       <c r="F45">
         <v>0.21</v>
       </c>
       <c r="G45">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="H45">
         <v>0.4</v>
@@ -2412,19 +4063,19 @@
         <v>0.19</v>
       </c>
       <c r="K45">
-        <v>0.005946671782083254</v>
+        <v>5.9466717820832538E-3</v>
       </c>
       <c r="L45">
         <v>2268.865532612765</v>
       </c>
       <c r="M45">
-        <v>2397.265735581875</v>
+        <v>2397.2657355818751</v>
       </c>
       <c r="N45">
-        <v>3056.781591815516</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>3056.7815918155161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43373</v>
       </c>
@@ -2438,13 +4089,13 @@
         <v>28.36666666666666</v>
       </c>
       <c r="E46">
-        <v>411.4333333333333</v>
+        <v>411.43333333333328</v>
       </c>
       <c r="F46">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="G46">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="H46">
         <v>0.184</v>
@@ -2456,63 +4107,63 @@
         <v>0.16</v>
       </c>
       <c r="K46">
-        <v>0.004799735187024164</v>
+        <v>4.7997351870241638E-3</v>
       </c>
       <c r="L46">
-        <v>9089.761044008421</v>
+        <v>9089.7610440084209</v>
       </c>
       <c r="M46">
-        <v>9030.732973468695</v>
+        <v>9030.7329734686955</v>
       </c>
       <c r="N46">
-        <v>8235.277751504796</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>8235.2777515047965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43404</v>
       </c>
       <c r="B47">
-        <v>5485.833333333334</v>
+        <v>5485.8333333333339</v>
       </c>
       <c r="C47">
-        <v>30.41666666666666</v>
+        <v>30.416666666666661</v>
       </c>
       <c r="D47">
         <v>28.86666666666666</v>
       </c>
       <c r="E47">
-        <v>147.9333333333333</v>
+        <v>147.93333333333331</v>
       </c>
       <c r="F47">
-        <v>0.1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="G47">
-        <v>0.2925</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="H47">
-        <v>0.2875</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="I47">
         <v>0.2</v>
       </c>
       <c r="J47">
-        <v>0.1325</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="K47">
-        <v>0.005544584535925869</v>
+        <v>5.5445845359258688E-3</v>
       </c>
       <c r="L47">
-        <v>4357.846326072611</v>
+        <v>4357.8463260726112</v>
       </c>
       <c r="M47">
-        <v>4264.082378362938</v>
+        <v>4264.0823783629376</v>
       </c>
       <c r="N47">
-        <v>3778.429452078382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>3778.4294520783819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43434</v>
       </c>
@@ -2523,40 +4174,40 @@
         <v>19</v>
       </c>
       <c r="D48">
-        <v>28.53333333333333</v>
+        <v>28.533333333333331</v>
       </c>
       <c r="E48">
-        <v>13.63333333333333</v>
+        <v>13.633333333333329</v>
       </c>
       <c r="F48">
-        <v>0.1675</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="G48">
-        <v>0.2825</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="H48">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I48">
         <v>0.1275</v>
       </c>
       <c r="J48">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K48">
-        <v>0.005088377075522228</v>
+        <v>5.0883770755222281E-3</v>
       </c>
       <c r="L48">
-        <v>5184.835382859776</v>
+        <v>5184.8353828597756</v>
       </c>
       <c r="M48">
-        <v>5239.307533452136</v>
+        <v>5239.3075334521363</v>
       </c>
       <c r="N48">
-        <v>5532.36820429645</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>5532.3682042964501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43465</v>
       </c>
@@ -2570,34 +4221,209 @@
         <v>27.36666666666666</v>
       </c>
       <c r="E49">
-        <v>142.1666666666667</v>
+        <v>142.16666666666671</v>
       </c>
       <c r="F49">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G49">
         <v>0.246</v>
       </c>
       <c r="H49">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="I49">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J49">
         <v>0.184</v>
       </c>
       <c r="K49">
-        <v>0.01047309498013723</v>
+        <v>1.0473094980137231E-2</v>
       </c>
       <c r="L49">
         <v>3490.083030833192</v>
       </c>
       <c r="M49">
-        <v>3532.271655268172</v>
+        <v>3532.2716552681718</v>
       </c>
       <c r="N49">
-        <v>3756.050510247091</v>
+        <v>3756.0505102470911</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>0.7044765689120478</v>
+      </c>
+      <c r="G2">
+        <v>0.649750007599464</v>
+      </c>
+      <c r="H2">
+        <v>0.62903904889223305</v>
+      </c>
+      <c r="I2">
+        <v>0.6169125772191042</v>
+      </c>
+      <c r="J2">
+        <v>0.34529467879938452</v>
+      </c>
+      <c r="K2">
+        <v>0.50864189091356804</v>
+      </c>
+      <c r="L2">
+        <v>0.33033286934221778</v>
+      </c>
+      <c r="M2">
+        <v>0.57474591720360901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3">
+        <v>0.71190370901690214</v>
+      </c>
+      <c r="G3">
+        <v>0.64541994955926407</v>
+      </c>
+      <c r="H3">
+        <v>0.8166931471066311</v>
+      </c>
+      <c r="I3">
+        <v>0.64328075360130565</v>
+      </c>
+      <c r="J3">
+        <v>0.170460493408499</v>
+      </c>
+      <c r="K3">
+        <v>0.53983387444295727</v>
+      </c>
+      <c r="L3">
+        <v>0.37206036068868192</v>
+      </c>
+      <c r="M3">
+        <v>0.60996750789585663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.68815741834733557</v>
+      </c>
+      <c r="G4">
+        <v>0.64360847811124067</v>
+      </c>
+      <c r="H4">
+        <v>0.70010276876061117</v>
+      </c>
+      <c r="I4">
+        <v>0.5355390770652444</v>
+      </c>
+      <c r="J4">
+        <v>0.51267305303735522</v>
+      </c>
+      <c r="K4">
+        <v>0.52312407509281977</v>
+      </c>
+      <c r="L4">
+        <v>0.32941545443836162</v>
+      </c>
+      <c r="M4">
+        <v>0.57394725754058762</v>
       </c>
     </row>
   </sheetData>
@@ -2605,173 +4431,1905 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:R47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
-        <v>0.7044765689120478</v>
-      </c>
-      <c r="G2">
-        <v>0.649750007599464</v>
-      </c>
-      <c r="H2">
-        <v>0.6290390488922331</v>
-      </c>
-      <c r="I2">
-        <v>0.6169125772191042</v>
-      </c>
-      <c r="J2">
-        <v>0.3452946787993845</v>
-      </c>
-      <c r="K2">
-        <v>0.508641890913568</v>
-      </c>
-      <c r="L2">
-        <v>0.3303328693422178</v>
-      </c>
-      <c r="M2">
-        <v>0.574745917203609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F3">
-        <v>0.7119037090169021</v>
-      </c>
-      <c r="G3">
-        <v>0.6454199495592641</v>
-      </c>
-      <c r="H3">
-        <v>0.8166931471066311</v>
-      </c>
-      <c r="I3">
-        <v>0.6432807536013057</v>
-      </c>
-      <c r="J3">
-        <v>0.170460493408499</v>
-      </c>
-      <c r="K3">
-        <v>0.5398338744429573</v>
-      </c>
-      <c r="L3">
-        <v>0.3720603606886819</v>
-      </c>
-      <c r="M3">
-        <v>0.6099675078958566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>42125</v>
+      </c>
+      <c r="D4">
+        <v>308</v>
       </c>
       <c r="F4">
-        <v>0.6881574183473356</v>
-      </c>
-      <c r="G4">
-        <v>0.6436084781112407</v>
+        <v>747.76012081267868</v>
       </c>
       <c r="H4">
-        <v>0.7001027687606112</v>
-      </c>
-      <c r="I4">
-        <v>0.5355390770652444</v>
+        <v>771.76010921096065</v>
       </c>
       <c r="J4">
-        <v>0.5126730530373552</v>
-      </c>
-      <c r="K4">
-        <v>0.5231240750928198</v>
-      </c>
-      <c r="L4">
-        <v>0.3294154544383616</v>
-      </c>
-      <c r="M4">
-        <v>0.5739472575405876</v>
+        <v>903.36090287691809</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="str">
+        <f>CONCATENATE(L4,M4,TEXT(B4,"mmm-yy"),M4)</f>
+        <v>"May-15"</v>
+      </c>
+      <c r="O4" t="str">
+        <f>CONCATENATE(L4,M4,TEXT(D4,"##"),M4)</f>
+        <v>"308"</v>
+      </c>
+      <c r="P4" t="str">
+        <f>CONCATENATE(L4,M4,TEXT(F4,"##"),M4)</f>
+        <v>"748"</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>CONCATENATE(L4,M4,TEXT(H4,"##"),M4)</f>
+        <v>"772"</v>
+      </c>
+      <c r="R4" t="str">
+        <f>CONCATENATE(L4,M4,TEXT(J4,"##"),M4)</f>
+        <v>"903"</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>42156</v>
+      </c>
+      <c r="D5">
+        <v>621</v>
+      </c>
+      <c r="F5">
+        <v>408.3248787205041</v>
+      </c>
+      <c r="H5">
+        <v>408.52121839744638</v>
+      </c>
+      <c r="J5">
+        <v>403.1597780828248</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N47" si="0">CONCATENATE(L5,M5,TEXT(B5,"mmm-yy"),M5)</f>
+        <v>,"Jun-15"</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ref="O5:O44" si="1">CONCATENATE(L5,M5,TEXT(D5,"##"),M5)</f>
+        <v>,"621"</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P47" si="2">CONCATENATE(L5,M5,TEXT(F5,"##"),M5)</f>
+        <v>,"408"</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q47" si="3">CONCATENATE(L5,M5,TEXT(H5,"##"),M5)</f>
+        <v>,"409"</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:R47" si="4">CONCATENATE(L5,M5,TEXT(J5,"##"),M5)</f>
+        <v>,"403"</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>42186</v>
+      </c>
+      <c r="D6">
+        <v>3270</v>
+      </c>
+      <c r="F6">
+        <v>2324.101347031462</v>
+      </c>
+      <c r="H6">
+        <v>2314.5877908361508</v>
+      </c>
+      <c r="J6">
+        <v>2307.6681590491812</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-15"</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3270"</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2324"</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2315"</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2308"</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>42217</v>
+      </c>
+      <c r="D7">
+        <v>2368</v>
+      </c>
+      <c r="F7">
+        <v>2481.5649665001142</v>
+      </c>
+      <c r="H7">
+        <v>2574.680000249577</v>
+      </c>
+      <c r="J7">
+        <v>2994.5327488508678</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-15"</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2368"</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2482"</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2575"</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2995"</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>42248</v>
+      </c>
+      <c r="D8">
+        <v>5162</v>
+      </c>
+      <c r="F8">
+        <v>4447.5462875682751</v>
+      </c>
+      <c r="H8">
+        <v>4482.7566972418354</v>
+      </c>
+      <c r="J8">
+        <v>4650.9167183557283</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-15"</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>,"5162"</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="2"/>
+        <v>,"4448"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="3"/>
+        <v>,"4483"</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"4651"</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>42278</v>
+      </c>
+      <c r="D9">
+        <v>7923</v>
+      </c>
+      <c r="F9">
+        <v>6591.1227091578712</v>
+      </c>
+      <c r="H9">
+        <v>6324.8018941785867</v>
+      </c>
+      <c r="J9">
+        <v>4879.4110998853903</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-15"</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>,"7923"</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="2"/>
+        <v>,"6591"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="3"/>
+        <v>,"6325"</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"4879"</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>42309</v>
+      </c>
+      <c r="D10">
+        <v>2284</v>
+      </c>
+      <c r="F10">
+        <v>7524.8555975891886</v>
+      </c>
+      <c r="H10">
+        <v>7599.5580248159467</v>
+      </c>
+      <c r="J10">
+        <v>8005.792963836423</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-15"</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2284"</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="2"/>
+        <v>,"7525"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="3"/>
+        <v>,"7600"</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"8006"</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>42339</v>
+      </c>
+      <c r="D11">
+        <v>2855</v>
+      </c>
+      <c r="F11">
+        <v>2708.2367718120022</v>
+      </c>
+      <c r="H11">
+        <v>2637.9123569938429</v>
+      </c>
+      <c r="J11">
+        <v>2270.1208313087618</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-15"</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2855"</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2708"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2638"</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2270"</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>42370</v>
+      </c>
+      <c r="D12">
+        <v>841</v>
+      </c>
+      <c r="F12">
+        <v>2467.7771627923098</v>
+      </c>
+      <c r="H12">
+        <v>2537.2130007722189</v>
+      </c>
+      <c r="J12">
+        <v>2909.7302988727488</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jan-16"</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>,"841"</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2468"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2537"</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2910"</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>42401</v>
+      </c>
+      <c r="D13">
+        <v>638</v>
+      </c>
+      <c r="F13">
+        <v>809.73435461432211</v>
+      </c>
+      <c r="H13">
+        <v>818.3571340827059</v>
+      </c>
+      <c r="J13">
+        <v>869.59849217134172</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Feb-16"</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>,"638"</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>,"810"</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="3"/>
+        <v>,"818"</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"870"</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>42430</v>
+      </c>
+      <c r="D14">
+        <v>811</v>
+      </c>
+      <c r="F14">
+        <v>434.61545099205563</v>
+      </c>
+      <c r="H14">
+        <v>433.1012329635322</v>
+      </c>
+      <c r="J14">
+        <v>362.25269168070861</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Mar-16"</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>,"811"</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="2"/>
+        <v>,"435"</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="3"/>
+        <v>,"433"</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"362"</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>42461</v>
+      </c>
+      <c r="D15">
+        <v>1343</v>
+      </c>
+      <c r="F15">
+        <v>813.89309326872467</v>
+      </c>
+      <c r="H15">
+        <v>1102.0280317218239</v>
+      </c>
+      <c r="J15">
+        <v>842.14991169565781</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Apr-16"</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1343"</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
+        <v>,"814"</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1102"</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="4"/>
+        <v>,"842"</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>42491</v>
+      </c>
+      <c r="D16">
+        <v>1384.375</v>
+      </c>
+      <c r="F16">
+        <v>627.27640312463006</v>
+      </c>
+      <c r="H16">
+        <v>669.27179118019012</v>
+      </c>
+      <c r="J16">
+        <v>751.98765978674157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>,"May-16"</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1384"</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="2"/>
+        <v>,"627"</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="3"/>
+        <v>,"669"</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"752"</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>42522</v>
+      </c>
+      <c r="D17">
+        <v>689</v>
+      </c>
+      <c r="F17">
+        <v>1960.347831692603</v>
+      </c>
+      <c r="H17">
+        <v>1964.743936295097</v>
+      </c>
+      <c r="J17">
+        <v>2002.323867288181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jun-16"</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>,"689"</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1960"</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1965"</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2002"</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>42552</v>
+      </c>
+      <c r="D18">
+        <v>1437</v>
+      </c>
+      <c r="F18">
+        <v>2256.5054151387239</v>
+      </c>
+      <c r="H18">
+        <v>2261.4409740412279</v>
+      </c>
+      <c r="J18">
+        <v>2267.0776445850352</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-16"</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1437"</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2257"</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2261"</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2267"</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>42583</v>
+      </c>
+      <c r="D19">
+        <v>1323</v>
+      </c>
+      <c r="F19">
+        <v>1042.477090596296</v>
+      </c>
+      <c r="H19">
+        <v>1075.9723895152231</v>
+      </c>
+      <c r="J19">
+        <v>1194.160717702486</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-16"</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1323"</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1042"</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1076"</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1194"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>42614</v>
+      </c>
+      <c r="D20">
+        <v>2889</v>
+      </c>
+      <c r="F20">
+        <v>2749.08008527224</v>
+      </c>
+      <c r="H20">
+        <v>2731.3079477334409</v>
+      </c>
+      <c r="J20">
+        <v>2640.785775370879</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-16"</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2889"</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2749"</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2731"</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2641"</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>42644</v>
+      </c>
+      <c r="D21">
+        <v>2701</v>
+      </c>
+      <c r="F21">
+        <v>3255.6552282628159</v>
+      </c>
+      <c r="H21">
+        <v>3186.6471585168711</v>
+      </c>
+      <c r="J21">
+        <v>2811.0408857480288</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-16"</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2701"</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="2"/>
+        <v>,"3256"</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3187"</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2811"</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D22">
+        <v>1914</v>
+      </c>
+      <c r="F22">
+        <v>2934.2316597128029</v>
+      </c>
+      <c r="H22">
+        <v>2883.604993395194</v>
+      </c>
+      <c r="J22">
+        <v>2597.4587983135252</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-16"</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1914"</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2934"</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2884"</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2597"</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D23">
+        <v>2361</v>
+      </c>
+      <c r="F23">
+        <v>1842.323722532238</v>
+      </c>
+      <c r="H23">
+        <v>1858.506137997311</v>
+      </c>
+      <c r="J23">
+        <v>1950.8216553376701</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-16"</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2361"</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1842"</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1859"</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1951"</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>42736</v>
+      </c>
+      <c r="D24">
+        <v>1498</v>
+      </c>
+      <c r="F24">
+        <v>2385.8539047993581</v>
+      </c>
+      <c r="H24">
+        <v>2385.4013244205898</v>
+      </c>
+      <c r="J24">
+        <v>2389.585431115675</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jan-17"</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1498"</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2386"</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2385"</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2390"</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>42767</v>
+      </c>
+      <c r="D25">
+        <v>1088</v>
+      </c>
+      <c r="F25">
+        <v>1730.8851203278571</v>
+      </c>
+      <c r="H25">
+        <v>1697.42677645513</v>
+      </c>
+      <c r="J25">
+        <v>1531.634985089376</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Feb-17"</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1088"</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1731"</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1697"</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1532"</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>42795</v>
+      </c>
+      <c r="D26">
+        <v>699</v>
+      </c>
+      <c r="F26">
+        <v>1137.493062498786</v>
+      </c>
+      <c r="H26">
+        <v>1128.9361496927779</v>
+      </c>
+      <c r="J26">
+        <v>1083.554268809728</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Mar-17"</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="1"/>
+        <v>,"699"</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1137"</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1129"</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1084"</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>42826</v>
+      </c>
+      <c r="D27">
+        <v>910</v>
+      </c>
+      <c r="F27">
+        <v>903.38786781824456</v>
+      </c>
+      <c r="H27">
+        <v>1117.693472042472</v>
+      </c>
+      <c r="J27">
+        <v>714.6722404836886</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Apr-17"</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>,"910"</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="2"/>
+        <v>,"903"</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1118"</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="4"/>
+        <v>,"715"</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>42856</v>
+      </c>
+      <c r="D28">
+        <v>511</v>
+      </c>
+      <c r="F28">
+        <v>931.06615150464461</v>
+      </c>
+      <c r="H28">
+        <v>927.05563282715332</v>
+      </c>
+      <c r="J28">
+        <v>905.15480554029193</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>,"May-17"</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>,"511"</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="2"/>
+        <v>,"931"</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="3"/>
+        <v>,"927"</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="4"/>
+        <v>,"905"</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>42887</v>
+      </c>
+      <c r="D29">
+        <v>861</v>
+      </c>
+      <c r="F29">
+        <v>744.56790784778605</v>
+      </c>
+      <c r="H29">
+        <v>742.61947393156629</v>
+      </c>
+      <c r="J29">
+        <v>737.64310026190947</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jun-17"</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="1"/>
+        <v>,"861"</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="2"/>
+        <v>,"745"</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="3"/>
+        <v>,"743"</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="4"/>
+        <v>,"738"</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>42917</v>
+      </c>
+      <c r="D30">
+        <v>2497</v>
+      </c>
+      <c r="F30">
+        <v>2784.378934043094</v>
+      </c>
+      <c r="H30">
+        <v>2791.4015691455238</v>
+      </c>
+      <c r="J30">
+        <v>2793.951661819493</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-17"</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2497"</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2784"</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2791"</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2794"</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>42948</v>
+      </c>
+      <c r="D31">
+        <v>3180</v>
+      </c>
+      <c r="F31">
+        <v>1979.5836604240319</v>
+      </c>
+      <c r="H31">
+        <v>2051.669047575635</v>
+      </c>
+      <c r="J31">
+        <v>2404.224465173063</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-17"</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3180"</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1980"</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2052"</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2404"</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>42979</v>
+      </c>
+      <c r="D32">
+        <v>5115</v>
+      </c>
+      <c r="F32">
+        <v>6410.759193632286</v>
+      </c>
+      <c r="H32">
+        <v>6406.192553658816</v>
+      </c>
+      <c r="J32">
+        <v>6397.9511911171649</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-17"</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="1"/>
+        <v>,"5115"</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="2"/>
+        <v>,"6411"</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="3"/>
+        <v>,"6406"</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="4"/>
+        <v>,"6398"</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>43009</v>
+      </c>
+      <c r="D33">
+        <v>3306</v>
+      </c>
+      <c r="F33">
+        <v>6170.5064254747331</v>
+      </c>
+      <c r="H33">
+        <v>5981.0983585406057</v>
+      </c>
+      <c r="J33">
+        <v>4964.7136867890968</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-17"</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3306"</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="2"/>
+        <v>,"6171"</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="3"/>
+        <v>,"5981"</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="4"/>
+        <v>,"4965"</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>43040</v>
+      </c>
+      <c r="D34">
+        <v>3131</v>
+      </c>
+      <c r="F34">
+        <v>3118.9090573861281</v>
+      </c>
+      <c r="H34">
+        <v>3149.4824052993249</v>
+      </c>
+      <c r="J34">
+        <v>3308.5925472410131</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-17"</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3131"</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="2"/>
+        <v>,"3119"</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3149"</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3309"</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>43070</v>
+      </c>
+      <c r="D35">
+        <v>3101</v>
+      </c>
+      <c r="F35">
+        <v>3166.5114795033678</v>
+      </c>
+      <c r="H35">
+        <v>3159.9807962610639</v>
+      </c>
+      <c r="J35">
+        <v>3124.6753197080538</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-17"</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3101"</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="2"/>
+        <v>,"3167"</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3160"</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3125"</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>43101</v>
+      </c>
+      <c r="D36">
+        <v>1573</v>
+      </c>
+      <c r="F36">
+        <v>3573.7609673382108</v>
+      </c>
+      <c r="H36">
+        <v>3503.508129672884</v>
+      </c>
+      <c r="J36">
+        <v>3150.587360669434</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jan-18"</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1573"</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="2"/>
+        <v>,"3574"</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3504"</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3151"</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>43132</v>
+      </c>
+      <c r="D37">
+        <v>1149</v>
+      </c>
+      <c r="F37">
+        <v>1586.841247509383</v>
+      </c>
+      <c r="H37">
+        <v>1587.741433856246</v>
+      </c>
+      <c r="J37">
+        <v>1598.1559019975341</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Feb-18"</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1149"</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1587"</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1588"</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1598"</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D38">
+        <v>2152</v>
+      </c>
+      <c r="F38">
+        <v>1454.021922795323</v>
+      </c>
+      <c r="H38">
+        <v>1407.099493778454</v>
+      </c>
+      <c r="J38">
+        <v>1168.201001224043</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Mar-18"</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="1"/>
+        <v>,"2152"</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="2"/>
+        <v>,"1454"</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="3"/>
+        <v>,"1407"</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1168"</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>43191</v>
+      </c>
+      <c r="D39">
+        <v>1026</v>
+      </c>
+      <c r="F39">
+        <v>2258.925458791814</v>
+      </c>
+      <c r="H39">
+        <v>3002.06412215003</v>
+      </c>
+      <c r="J39">
+        <v>2191.494106752983</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Apr-18"</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="1"/>
+        <v>,"1026"</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2259"</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3002"</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2191"</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>43221</v>
+      </c>
+      <c r="D40">
+        <v>759</v>
+      </c>
+      <c r="F40">
+        <v>973.15650979293559</v>
+      </c>
+      <c r="H40">
+        <v>986.52447971831702</v>
+      </c>
+      <c r="J40">
+        <v>1064.669778274488</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>,"May-18"</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="1"/>
+        <v>,"759"</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="2"/>
+        <v>,"973"</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="3"/>
+        <v>,"987"</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="4"/>
+        <v>,"1065"</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>43252</v>
+      </c>
+      <c r="D41">
+        <v>657.5</v>
+      </c>
+      <c r="F41">
+        <v>330.80541533078713</v>
+      </c>
+      <c r="H41">
+        <v>371.3956638901517</v>
+      </c>
+      <c r="J41">
+        <v>439.57913786141091</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jun-18"</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="1"/>
+        <v>,"658"</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="2"/>
+        <v>,"331"</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="3"/>
+        <v>,"371"</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="4"/>
+        <v>,"440"</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>43282</v>
+      </c>
+      <c r="D42">
+        <v>3084</v>
+      </c>
+      <c r="F42">
+        <v>2669.5147252204829</v>
+      </c>
+      <c r="H42">
+        <v>2631.66044222338</v>
+      </c>
+      <c r="J42">
+        <v>2491.24356040468</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Jul-18"</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3084"</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2670"</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2632"</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="4"/>
+        <v>,"2491"</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>43313</v>
+      </c>
+      <c r="D43">
+        <v>5213</v>
+      </c>
+      <c r="F43">
+        <v>2268.865532612765</v>
+      </c>
+      <c r="H43">
+        <v>2397.2657355818751</v>
+      </c>
+      <c r="J43">
+        <v>3056.7815918155161</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Aug-18"</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="1"/>
+        <v>,"5213"</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="2"/>
+        <v>,"2269"</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="3"/>
+        <v>,"2397"</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3057"</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>43344</v>
+      </c>
+      <c r="D44">
+        <v>3776.25</v>
+      </c>
+      <c r="F44">
+        <v>9089.7610440084209</v>
+      </c>
+      <c r="H44">
+        <v>9030.7329734686955</v>
+      </c>
+      <c r="J44">
+        <v>8235.2777515047965</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Sep-18"</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="1"/>
+        <v>,"3776"</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="2"/>
+        <v>,"9090"</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="3"/>
+        <v>,"9031"</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="4"/>
+        <v>,"8235"</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>43374</v>
+      </c>
+      <c r="D45">
+        <v>5485.8333333333339</v>
+      </c>
+      <c r="F45">
+        <v>4357.8463260726112</v>
+      </c>
+      <c r="H45">
+        <v>4264.0823783629376</v>
+      </c>
+      <c r="J45">
+        <v>3778.4294520783819</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Oct-18"</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="2"/>
+        <v>,"4358"</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="3"/>
+        <v>,"4264"</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3778"</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>43405</v>
+      </c>
+      <c r="D46">
+        <v>3734</v>
+      </c>
+      <c r="F46">
+        <v>5184.8353828597756</v>
+      </c>
+      <c r="H46">
+        <v>5239.3075334521363</v>
+      </c>
+      <c r="J46">
+        <v>5532.3682042964501</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Nov-18"</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="2"/>
+        <v>,"5185"</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="3"/>
+        <v>,"5239"</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="4"/>
+        <v>,"5532"</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>43435</v>
+      </c>
+      <c r="D47">
+        <v>2769</v>
+      </c>
+      <c r="F47">
+        <v>3490.083030833192</v>
+      </c>
+      <c r="H47">
+        <v>3532.2716552681718</v>
+      </c>
+      <c r="J47">
+        <v>3756.0505102470911</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>,"Dec-18"</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="2"/>
+        <v>,"3490"</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="3"/>
+        <v>,"3532"</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="4"/>
+        <v>,"3756"</v>
       </c>
     </row>
   </sheetData>
